--- a/src/main/webapp/upload/excelUpload.xlsx
+++ b/src/main/webapp/upload/excelUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JongCHan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool\overtime\src\main\webapp\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA02B53-D89D-411B-9A05-C3E0C13C9F68}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF444DB-F23D-4E0B-915D-E301942F90C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9945" yWindow="3225" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>사용일자</t>
   </si>
@@ -36,6 +36,33 @@
   <si>
     <t>한국맥도날드　（유）한양대점</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-11-22</t>
+  </si>
+  <si>
+    <t>2019-11-23</t>
+  </si>
+  <si>
+    <t>2019-11-24</t>
+  </si>
+  <si>
+    <t>2019-11-25</t>
+  </si>
+  <si>
+    <t>2019-11-26</t>
+  </si>
+  <si>
+    <t>2019-11-27</t>
+  </si>
+  <si>
+    <t>2019-11-28</t>
+  </si>
+  <si>
+    <t>2019-11-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
   </si>
 </sst>
 </file>
@@ -172,11 +199,11 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,24 +558,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -556,11 +583,110 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>39700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>39706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>39707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>39708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>39709</v>
       </c>
     </row>
   </sheetData>
